--- a/Data/EC/NIT-9000313500.xlsx
+++ b/Data/EC/NIT-9000313500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48CF9294-447B-4E02-A693-3BCBB017313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2864A0E-03B9-4DCA-9F23-976813085EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93DF29FB-929A-4E32-A804-25F71FA87E5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F093AE2-AA86-4902-9107-C35AF610A85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,76 +71,76 @@
     <t>ANDRES MIGUEL CASTRO PADILLA</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E6A7E5-F2C8-AB86-0921-533E36E591D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2FE01D-DD29-4301-B0DC-4D9224EA1828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BAE39-25D7-4BEA-B632-04BD388095AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875EDF79-DB2D-4755-9F46-2919C83DA1FC}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
